--- a/IcoLL2026program.xlsx
+++ b/IcoLL2026program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4089F42-A1AB-DD43-BE4A-9608C7EF4A44}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5A81EF-FA1A-6444-98E0-8CD9F1A39DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{D9E02033-B4E9-AB40-9063-355C6063E1BA}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:30-9:55</t>
-  </si>
-  <si>
     <t>10:00-11:00</t>
   </si>
   <si>
@@ -173,6 +170,10 @@
   </si>
   <si>
     <t>Plenary talk: TBA (Pamela Perniss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30-09:55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,10 +248,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,7 +570,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -593,10 +590,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -604,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -615,10 +612,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -626,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -637,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -646,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -654,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -663,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -671,10 +668,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -682,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -693,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -702,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -710,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -719,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -727,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -738,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -747,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -755,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -764,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -772,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -781,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -789,10 +786,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -800,10 +797,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -811,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -820,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -828,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -837,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -845,10 +842,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -856,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -867,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -876,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -884,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -893,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -901,10 +898,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -912,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -921,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -929,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -938,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -946,10 +943,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -957,10 +954,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -968,10 +965,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -979,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -988,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -996,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1005,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1013,10 +1010,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1024,10 +1021,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1035,10 +1032,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1046,10 +1043,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1057,10 +1054,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/IcoLL2026program.xlsx
+++ b/IcoLL2026program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5A81EF-FA1A-6444-98E0-8CD9F1A39DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4089F42-A1AB-DD43-BE4A-9608C7EF4A44}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{D9E02033-B4E9-AB40-9063-355C6063E1BA}"/>
   </bookViews>
@@ -50,6 +50,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9:30-9:55</t>
+  </si>
+  <si>
     <t>10:00-11:00</t>
   </si>
   <si>
@@ -170,10 +173,6 @@
   </si>
   <si>
     <t>Plenary talk: TBA (Pamela Perniss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:30-09:55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,6 +247,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,7 +573,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -590,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -601,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -612,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -623,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -634,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -643,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -651,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -660,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -668,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -679,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -690,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -699,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -707,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -716,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -724,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -735,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -744,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -752,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -761,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -769,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -778,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -786,10 +789,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -797,10 +800,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -808,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -817,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -825,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -834,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -842,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -853,10 +856,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -864,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -873,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -881,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -890,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -898,10 +901,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -909,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -918,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -926,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -935,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -943,10 +946,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -954,10 +957,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -965,10 +968,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -976,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -985,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -993,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1002,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1010,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1021,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1032,10 +1035,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1043,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1054,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/IcoLL2026program.xlsx
+++ b/IcoLL2026program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4089F42-A1AB-DD43-BE4A-9608C7EF4A44}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F3610D-512D-BA4E-85C1-84593803FA8B}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{D9E02033-B4E9-AB40-9063-355C6063E1BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>Plenary talk: TBA (Pamela Perniss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:20-12:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:20-12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-13:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,10 +259,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3E3D4E-C425-0941-A06A-D75EBF821AE1}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1024,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>37</v>
@@ -1035,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>28</v>
@@ -1046,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>23</v>

--- a/IcoLL2026program.xlsx
+++ b/IcoLL2026program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F3610D-512D-BA4E-85C1-84593803FA8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91F7F2B-052A-CB45-B564-054F1D787EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{D9E02033-B4E9-AB40-9063-355C6063E1BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,9 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:30-9:55</t>
-  </si>
-  <si>
     <t>10:00-11:00</t>
   </si>
   <si>
@@ -125,14 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Poster presentations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conference dinner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16:25-16:40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,18 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plenary talk: Iconicity bootstrapping hypothesis for the acquisition and evolution of language (Mutsumi Imai)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plenary talk: Iconicity and visual languages in a multimodal language faculty (Neil Cohn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plenary talk: TBA (Pamela Perniss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11:20-12:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +162,38 @@
   </si>
   <si>
     <t>12:30-13:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plenary talk (Okuma Hall): Iconicity bootstrapping hypothesis for the acquisition and evolution of language (Mutsumi Imai)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plenary talk (Okuma Hall): Iconicity and visual languages in a multimodal language faculty (Neil Cohn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plenary talk (Okuma Hall): TBA (Pamela Perniss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poster presentations (Bldg. IB, 1st Floor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conference dinner (Restaurant Hananoki)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00-09:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30-09:55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3E3D4E-C425-0941-A06A-D75EBF821AE1}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -601,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -612,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -623,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,10 +643,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -645,16 +654,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -662,16 +665,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -679,10 +682,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -690,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -701,16 +710,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -718,16 +721,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -735,10 +738,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -746,16 +755,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -763,16 +766,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -780,27 +783,33 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -808,10 +817,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -819,16 +828,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -836,16 +839,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -853,10 +856,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -864,10 +873,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -875,16 +884,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -892,16 +895,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -909,10 +912,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -920,16 +929,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -937,16 +940,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -954,10 +957,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -965,10 +974,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -979,24 +988,18 @@
         <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1004,16 +1007,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1023,8 +1026,14 @@
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1032,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1043,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1054,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1065,10 +1074,21 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/IcoLL2026program.xlsx
+++ b/IcoLL2026program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91F7F2B-052A-CB45-B564-054F1D787EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6ECDD5-B05A-2842-8DF8-B0F71831EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{D9E02033-B4E9-AB40-9063-355C6063E1BA}"/>
   </bookViews>
@@ -165,18 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plenary talk (Okuma Hall): Iconicity bootstrapping hypothesis for the acquisition and evolution of language (Mutsumi Imai)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plenary talk (Okuma Hall): Iconicity and visual languages in a multimodal language faculty (Neil Cohn)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plenary talk (Okuma Hall): TBA (Pamela Perniss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Registration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +183,15 @@
   <si>
     <t>09:30-09:55</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plenary talk: Iconicity bootstrapping hypothesis for the acquisition and evolution of language (Mutsumi Imai)</t>
+  </si>
+  <si>
+    <t>Plenary talk: Iconicity and visual languages in a multimodal language faculty (Neil Cohn)</t>
+  </si>
+  <si>
+    <t>Plenary talk: TBA (Pamela Perniss)</t>
   </si>
 </sst>
 </file>
@@ -590,7 +587,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -621,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -632,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
@@ -713,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -820,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -887,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -988,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -999,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1055,7 +1052,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5">

--- a/IcoLL2026program.xlsx
+++ b/IcoLL2026program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6ECDD5-B05A-2842-8DF8-B0F71831EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0442B352-A7B2-E141-B75B-D666CA37AE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{D9E02033-B4E9-AB40-9063-355C6063E1BA}"/>
   </bookViews>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09:00-09:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>09:30-09:55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t>Plenary talk: TBA (Pamela Perniss)</t>
+  </si>
+  <si>
+    <t>08:30-09:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -985,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5">

--- a/IcoLL2026program.xlsx
+++ b/IcoLL2026program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0442B352-A7B2-E141-B75B-D666CA37AE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D31E5CD-3767-B649-A391-BD52306E06D3}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{D9E02033-B4E9-AB40-9063-355C6063E1BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,9 +83,6 @@
     <t>15:55-16:25</t>
   </si>
   <si>
-    <t>16:25-16:45</t>
-  </si>
-  <si>
     <t>18:00-20:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11:05-11:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:35-11:05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13:00-18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,18 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11:20-12:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:20-12:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:30-13:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Registration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +154,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10:00-11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>09:30-09:55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>08:30-09:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Plenary talk: Iconicity bootstrapping hypothesis for the acquisition and evolution of language (Mutsumi Imai)</t>
   </si>
   <si>
@@ -190,7 +175,19 @@
     <t>Plenary talk: TBA (Pamela Perniss)</t>
   </si>
   <si>
-    <t>08:30-09:30</t>
+    <t>12:00-13:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30-10:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:45-11:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:45-12:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,6 +262,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3E3D4E-C425-0941-A06A-D75EBF821AE1}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -607,10 +608,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -618,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -629,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -643,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -654,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -671,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -688,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -699,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -710,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -727,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -744,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -755,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -772,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -789,24 +790,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -814,10 +809,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -825,10 +820,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -836,16 +837,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -853,16 +854,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -870,10 +865,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -881,10 +876,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -892,16 +893,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -909,16 +910,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -926,10 +921,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -937,16 +938,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -954,16 +955,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -971,10 +966,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -982,21 +977,27 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1004,16 +1005,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1021,16 +1016,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1038,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1049,10 +1038,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1060,32 +1049,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/IcoLL2026program.xlsx
+++ b/IcoLL2026program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D31E5CD-3767-B649-A391-BD52306E06D3}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{292558D3-3B3A-0148-9AA9-946E742CBD57}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{D9E02033-B4E9-AB40-9063-355C6063E1BA}"/>
   </bookViews>
@@ -172,9 +172,6 @@
     <t>Plenary talk: Iconicity and visual languages in a multimodal language faculty (Neil Cohn)</t>
   </si>
   <si>
-    <t>Plenary talk: TBA (Pamela Perniss)</t>
-  </si>
-  <si>
     <t>12:00-13:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +185,10 @@
   </si>
   <si>
     <t>11:45-12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plenary talk: Harnessing iconicity for language learning (Pamela Perniss)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,10 +263,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3E3D4E-C425-0941-A06A-D75EBF821AE1}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1005,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>20</v>
@@ -1016,10 +1013,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1027,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>22</v>
@@ -1038,7 +1035,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>

--- a/IcoLL2026program.xlsx
+++ b/IcoLL2026program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{292558D3-3B3A-0148-9AA9-946E742CBD57}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{149CBE6F-417B-794B-8FFD-A9E90A5942AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{756E33B6-40AB-CB41-A3C7-E330B32C5580}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{D9E02033-B4E9-AB40-9063-355C6063E1BA}"/>
   </bookViews>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Opening remarks (Hinano Iida)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lunch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Registration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Poster presentations (Bldg. IB, 1st Floor)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +181,14 @@
   </si>
   <si>
     <t>Plenary talk: Harnessing iconicity for language learning (Pamela Perniss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registration (IB012)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opening remarks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,6 +263,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3E3D4E-C425-0941-A06A-D75EBF821AE1}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -605,10 +609,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -616,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -627,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -641,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -669,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -686,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -697,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -708,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -725,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -742,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -753,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -770,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -787,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -795,10 +799,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -809,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -826,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -843,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -854,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -865,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -882,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -899,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -910,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -927,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -944,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -952,10 +956,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -966,7 +970,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -977,7 +981,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -994,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1002,10 +1006,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1013,10 +1017,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1024,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1035,10 +1039,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1049,7 +1053,7 @@
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
